--- a/期中/预测汇总/期中考试_黄智强_36020251155192.xlsx
+++ b/期中/预测汇总/期中考试_黄智强_36020251155192.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw/Nutstore Files/我的坚果云/XMU/教学相关/Courses/深度学习/期中考试/2025/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A010B2F9-8041-754E-96C9-2204EBF608C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="860" windowWidth="28040" windowHeight="17120" xr2:uid="{341DD37D-A77E-294A-AD27-9459CA13FF7B}"/>
+    <workbookView windowWidth="18352" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,154 +27,463 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>交易日期</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
   <si>
     <t>中公教育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>002607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天宜新材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>润和软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正丹股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>科力装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>软通动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通化东宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长城军工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浪潮信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000977</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>京东方A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000725</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>松原安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五粮液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000858</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首开股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贵州茅台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工业富联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同花顺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寒武纪-U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>北大荒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中信证券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完美世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>002624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,9 +491,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -207,17 +750,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -299,26 +886,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,23 +921,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,40 +1062,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A912C32-EFF4-7B4B-8964-2093E7A90CB5}">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -550,13 +1101,16 @@
         <v>45978</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -564,13 +1118,16 @@
         <v>45979</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -578,13 +1135,16 @@
         <v>45980</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -592,13 +1152,16 @@
         <v>45981</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -606,13 +1169,16 @@
         <v>45982</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
@@ -620,13 +1186,16 @@
         <v>45978</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>688033</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -634,13 +1203,16 @@
         <v>45979</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>688033</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -648,13 +1220,16 @@
         <v>45980</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>688033</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -662,13 +1237,16 @@
         <v>45981</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
         <v>688033</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -676,13 +1254,16 @@
         <v>45982</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>688033</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>3</v>
       </c>
@@ -690,13 +1271,16 @@
         <v>45978</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>300339</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>3</v>
       </c>
@@ -704,13 +1288,16 @@
         <v>45979</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
         <v>300339</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>3</v>
       </c>
@@ -718,13 +1305,16 @@
         <v>45980</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
         <v>300339</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
@@ -732,13 +1322,16 @@
         <v>45981</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
         <v>300339</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -746,13 +1339,16 @@
         <v>45982</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2">
         <v>300339</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>4</v>
       </c>
@@ -760,13 +1356,16 @@
         <v>45978</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <v>300641</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>4</v>
       </c>
@@ -774,13 +1373,16 @@
         <v>45979</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
         <v>300641</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>4</v>
       </c>
@@ -788,13 +1390,16 @@
         <v>45980</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
         <v>300641</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
@@ -802,13 +1407,16 @@
         <v>45981</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
         <v>300641</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>4</v>
       </c>
@@ -816,13 +1424,16 @@
         <v>45982</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2">
         <v>300641</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>5</v>
       </c>
@@ -830,13 +1441,16 @@
         <v>45978</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
         <v>301552</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>5</v>
       </c>
@@ -844,13 +1458,16 @@
         <v>45979</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>301552</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>5</v>
       </c>
@@ -858,13 +1475,16 @@
         <v>45980</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <v>301552</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>5</v>
       </c>
@@ -872,13 +1492,16 @@
         <v>45981</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>301552</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>5</v>
       </c>
@@ -886,13 +1509,16 @@
         <v>45982</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>301552</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>6</v>
       </c>
@@ -900,13 +1526,16 @@
         <v>45978</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2">
         <v>301236</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>6</v>
       </c>
@@ -914,13 +1543,16 @@
         <v>45979</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2">
         <v>301236</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>6</v>
       </c>
@@ -928,13 +1560,16 @@
         <v>45980</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2">
         <v>301236</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>6</v>
       </c>
@@ -942,13 +1577,16 @@
         <v>45981</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2">
         <v>301236</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>6</v>
       </c>
@@ -956,13 +1594,16 @@
         <v>45982</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2">
         <v>301236</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>7</v>
       </c>
@@ -970,13 +1611,16 @@
         <v>45978</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
         <v>600867</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>7</v>
       </c>
@@ -984,13 +1628,16 @@
         <v>45979</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2">
         <v>600867</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>7</v>
       </c>
@@ -998,13 +1645,16 @@
         <v>45980</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
         <v>600867</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1012,13 +1662,16 @@
         <v>45981</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2">
         <v>600867</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>7</v>
       </c>
@@ -1026,13 +1679,16 @@
         <v>45982</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2">
         <v>600867</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1040,13 +1696,16 @@
         <v>45978</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2">
         <v>601606</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1054,13 +1713,16 @@
         <v>45979</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2">
         <v>601606</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>8</v>
       </c>
@@ -1068,13 +1730,16 @@
         <v>45980</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2">
         <v>601606</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>8</v>
       </c>
@@ -1082,13 +1747,16 @@
         <v>45981</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2">
         <v>601606</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>8</v>
       </c>
@@ -1096,13 +1764,16 @@
         <v>45982</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2">
         <v>601606</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1110,13 +1781,16 @@
         <v>45978</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>9</v>
       </c>
@@ -1124,13 +1798,16 @@
         <v>45979</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>9</v>
       </c>
@@ -1138,13 +1815,16 @@
         <v>45980</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1152,13 +1832,16 @@
         <v>45981</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1166,13 +1849,16 @@
         <v>45982</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1180,13 +1866,16 @@
         <v>45978</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>10</v>
       </c>
@@ -1194,13 +1883,16 @@
         <v>45979</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1208,13 +1900,16 @@
         <v>45980</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1222,13 +1917,16 @@
         <v>45981</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>10</v>
       </c>
@@ -1236,13 +1934,16 @@
         <v>45982</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>11</v>
       </c>
@@ -1250,13 +1951,16 @@
         <v>45978</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2">
         <v>300893</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>11</v>
       </c>
@@ -1264,13 +1968,16 @@
         <v>45979</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2">
         <v>300893</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>11</v>
       </c>
@@ -1278,13 +1985,16 @@
         <v>45980</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2">
         <v>300893</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>11</v>
       </c>
@@ -1292,13 +2002,16 @@
         <v>45981</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2">
         <v>300893</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>11</v>
       </c>
@@ -1306,13 +2019,16 @@
         <v>45982</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2">
         <v>300893</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>12</v>
       </c>
@@ -1320,13 +2036,16 @@
         <v>45978</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>12</v>
       </c>
@@ -1334,13 +2053,16 @@
         <v>45979</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>12</v>
       </c>
@@ -1348,13 +2070,16 @@
         <v>45980</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>12</v>
       </c>
@@ -1362,13 +2087,16 @@
         <v>45981</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>12</v>
       </c>
@@ -1376,13 +2104,16 @@
         <v>45982</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>13</v>
       </c>
@@ -1390,13 +2121,16 @@
         <v>45978</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2">
         <v>600376</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>13</v>
       </c>
@@ -1404,13 +2138,16 @@
         <v>45979</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2">
         <v>600376</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>13</v>
       </c>
@@ -1418,13 +2155,16 @@
         <v>45980</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2">
         <v>600376</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>13</v>
       </c>
@@ -1432,13 +2172,16 @@
         <v>45981</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2">
         <v>600376</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>13</v>
       </c>
@@ -1446,13 +2189,16 @@
         <v>45982</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2">
         <v>600376</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>14</v>
       </c>
@@ -1460,13 +2206,16 @@
         <v>45978</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2">
         <v>600519</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>14</v>
       </c>
@@ -1474,13 +2223,16 @@
         <v>45979</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2">
         <v>600519</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>14</v>
       </c>
@@ -1488,13 +2240,16 @@
         <v>45980</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2">
         <v>600519</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>14</v>
       </c>
@@ -1502,13 +2257,16 @@
         <v>45981</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2">
         <v>600519</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>14</v>
       </c>
@@ -1516,13 +2274,16 @@
         <v>45982</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2">
         <v>600519</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>15</v>
       </c>
@@ -1530,13 +2291,16 @@
         <v>45978</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D72" s="2">
         <v>601138</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>15</v>
       </c>
@@ -1544,13 +2308,16 @@
         <v>45979</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D73" s="2">
         <v>601138</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>15</v>
       </c>
@@ -1558,13 +2325,16 @@
         <v>45980</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D74" s="2">
         <v>601138</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>15</v>
       </c>
@@ -1572,13 +2342,16 @@
         <v>45981</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D75" s="2">
         <v>601138</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>15</v>
       </c>
@@ -1586,13 +2359,16 @@
         <v>45982</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D76" s="2">
         <v>601138</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>16</v>
       </c>
@@ -1600,13 +2376,16 @@
         <v>45978</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2">
         <v>300033</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>16</v>
       </c>
@@ -1614,13 +2393,16 @@
         <v>45979</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2">
         <v>300033</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>16</v>
       </c>
@@ -1628,13 +2410,16 @@
         <v>45980</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2">
         <v>300033</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>16</v>
       </c>
@@ -1642,13 +2427,16 @@
         <v>45981</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2">
         <v>300033</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>16</v>
       </c>
@@ -1656,13 +2444,16 @@
         <v>45982</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2">
         <v>300033</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>17</v>
       </c>
@@ -1670,13 +2461,16 @@
         <v>45978</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2">
         <v>688256</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>17</v>
       </c>
@@ -1684,13 +2478,16 @@
         <v>45979</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2">
         <v>688256</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>17</v>
       </c>
@@ -1698,13 +2495,16 @@
         <v>45980</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2">
         <v>688256</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>17</v>
       </c>
@@ -1712,13 +2512,16 @@
         <v>45981</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2">
         <v>688256</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>17</v>
       </c>
@@ -1726,13 +2529,16 @@
         <v>45982</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2">
         <v>688256</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>18</v>
       </c>
@@ -1740,13 +2546,16 @@
         <v>45978</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D87" s="2">
         <v>600598</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>18</v>
       </c>
@@ -1754,13 +2563,16 @@
         <v>45979</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D88" s="2">
         <v>600598</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>18</v>
       </c>
@@ -1768,13 +2580,16 @@
         <v>45980</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2">
         <v>600598</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>18</v>
       </c>
@@ -1782,13 +2597,16 @@
         <v>45981</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D90" s="2">
         <v>600598</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>18</v>
       </c>
@@ -1796,13 +2614,16 @@
         <v>45982</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D91" s="2">
         <v>600598</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>19</v>
       </c>
@@ -1810,13 +2631,16 @@
         <v>45978</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>600030</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>19</v>
       </c>
@@ -1824,13 +2648,16 @@
         <v>45979</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>600030</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>19</v>
       </c>
@@ -1838,13 +2665,16 @@
         <v>45980</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>600030</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>19</v>
       </c>
@@ -1852,13 +2682,16 @@
         <v>45981</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>600030</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>19</v>
       </c>
@@ -1866,13 +2699,16 @@
         <v>45982</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>600030</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>20</v>
       </c>
@@ -1880,13 +2716,16 @@
         <v>45978</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>20</v>
       </c>
@@ -1894,13 +2733,16 @@
         <v>45979</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>20</v>
       </c>
@@ -1908,13 +2750,16 @@
         <v>45980</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>20</v>
       </c>
@@ -1922,13 +2767,16 @@
         <v>45981</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>20</v>
       </c>
@@ -1936,14 +2784,17 @@
         <v>45982</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>